--- a/biology/Botanique/Brachysiraceae/Brachysiraceae.xlsx
+++ b/biology/Botanique/Brachysiraceae/Brachysiraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brachysiraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Naviculales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Brachysira, formé du préfixe brachi- (du grec βραχύς / brachýs, court), et du suffixe -sir (du grec σειρα / seira,  « corde ; chaine »), littéralement « courtes chaines », en références à la structure des colonies de cette diatomée dont « la fronde, très petite, (est) formée de frustules soudés parallèlement et irrégulièrement »[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Brachysira, formé du préfixe brachi- (du grec βραχύς / brachýs, court), et du suffixe -sir (du grec σειρα / seira,  « corde ; chaine »), littéralement « courtes chaines », en références à la structure des colonies de cette diatomée dont « la fronde, très petite, (est) formée de frustules soudés parallèlement et irrégulièrement ».  
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Kützing qui a créé le genre, la fronde de cette diatomée est très petite, et formée de frustules soudés parallèlement et irrégulièrement. Pour d'Orbigny, les frondes ne sont pas soudées mais simplement rapprochées en séries plus ou moins longues, lorsqu'ils s'élèvent à la surface de l'eau[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Kützing qui a créé le genre, la fronde de cette diatomée est très petite, et formée de frustules soudés parallèlement et irrégulièrement. Pour d'Orbigny, les frondes ne sont pas soudées mais simplement rapprochées en séries plus ou moins longues, lorsqu'ils s'élèvent à la surface de l'eau.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (13 mai 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (13 mai 2022) :
 Brachysira Kützing, 1836
 Nupela Vyverman &amp; Compère, 1991</t>
         </is>
@@ -631,9 +651,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Brachysiraceae D.G.Mann[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Brachysiraceae D.G.Mann.
 </t>
         </is>
       </c>
